--- a/mosqito/tests/roughness/data/Test_fc_125.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F92099-4F03-4CDF-A02A-2C8717539194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A298F5-ACC9-494C-856F-7BC225BED6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E31EE49-7613-4FFB-801A-FAB2588F943B}"/>
   </bookViews>
@@ -51,94 +51,94 @@
     <t>R</t>
   </si>
   <si>
-    <t>11.406734</t>
-  </si>
-  <si>
-    <t>22.52557</t>
-  </si>
-  <si>
-    <t>25.691048</t>
-  </si>
-  <si>
-    <t>26.840311</t>
-  </si>
-  <si>
-    <t>28.660702</t>
-  </si>
-  <si>
-    <t>30.85642</t>
-  </si>
-  <si>
-    <t>33.764305</t>
-  </si>
-  <si>
-    <t>35.55966</t>
-  </si>
-  <si>
-    <t>38.48511</t>
-  </si>
-  <si>
-    <t>40.74888</t>
-  </si>
-  <si>
-    <t>42.793167</t>
-  </si>
-  <si>
-    <t>44.937107</t>
-  </si>
-  <si>
-    <t>47.446156</t>
-  </si>
-  <si>
-    <t>49.41387</t>
-  </si>
-  <si>
-    <t>101.336945</t>
-  </si>
-  <si>
-    <t>0.10293284</t>
-  </si>
-  <si>
-    <t>0.27182823</t>
-  </si>
-  <si>
-    <t>0.31100854</t>
-  </si>
-  <si>
-    <t>0.31965184</t>
-  </si>
-  <si>
-    <t>0.33123672</t>
-  </si>
-  <si>
-    <t>0.3441784</t>
-  </si>
-  <si>
-    <t>0.3459583</t>
-  </si>
-  <si>
-    <t>0.3430361</t>
-  </si>
-  <si>
-    <t>0.3372985</t>
-  </si>
-  <si>
-    <t>0.32534227</t>
-  </si>
-  <si>
-    <t>0.31209344</t>
-  </si>
-  <si>
-    <t>0.2944696</t>
-  </si>
-  <si>
-    <t>0.27706954</t>
-  </si>
-  <si>
-    <t>0.2571405</t>
-  </si>
-  <si>
-    <t>0.074711666</t>
+    <t>11.320674</t>
+  </si>
+  <si>
+    <t>21.970823</t>
+  </si>
+  <si>
+    <t>24.331106</t>
+  </si>
+  <si>
+    <t>25.77228</t>
+  </si>
+  <si>
+    <t>27.801502</t>
+  </si>
+  <si>
+    <t>29.831356</t>
+  </si>
+  <si>
+    <t>31.347486</t>
+  </si>
+  <si>
+    <t>32.429077</t>
+  </si>
+  <si>
+    <t>35.616386</t>
+  </si>
+  <si>
+    <t>38.407555</t>
+  </si>
+  <si>
+    <t>40.773315</t>
+  </si>
+  <si>
+    <t>42.723705</t>
+  </si>
+  <si>
+    <t>46.29873</t>
+  </si>
+  <si>
+    <t>50.558178</t>
+  </si>
+  <si>
+    <t>100.85394</t>
+  </si>
+  <si>
+    <t>0.101526074</t>
+  </si>
+  <si>
+    <t>0.26132664</t>
+  </si>
+  <si>
+    <t>0.29006895</t>
+  </si>
+  <si>
+    <t>0.3063978</t>
+  </si>
+  <si>
+    <t>0.32446954</t>
+  </si>
+  <si>
+    <t>0.33473063</t>
+  </si>
+  <si>
+    <t>0.34085318</t>
+  </si>
+  <si>
+    <t>0.34529707</t>
+  </si>
+  <si>
+    <t>0.3424573</t>
+  </si>
+  <si>
+    <t>0.33437043</t>
+  </si>
+  <si>
+    <t>0.3230931</t>
+  </si>
+  <si>
+    <t>0.310582</t>
+  </si>
+  <si>
+    <t>0.28253472</t>
+  </si>
+  <si>
+    <t>0.24710885</t>
+  </si>
+  <si>
+    <t>0.07500888</t>
   </si>
 </sst>
 </file>
